--- a/feature/organize-folders-by-use-cases/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/feature/organize-folders-by-use-cases/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-06T10:48:04+00:00</t>
+    <t>2024-11-06T10:53:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
